--- a/campi-10-1.5.log.xlsx
+++ b/campi-10-1.5.log.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanjay\Downloads\autodrive-master\autodrive-master\rpi\dataset5-nopause\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDB255FC-A974-4DAC-885A-5C8FFA60958F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA424D8D-B80E-40CF-BFE2-6FD58A027F13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="2430" windowWidth="29040" windowHeight="20520"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="24120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="campi-10-1.5" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'campi-10-1.5'!$A$1:$G$225</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>L</t>
   </si>
@@ -33,11 +44,17 @@
   <si>
     <t>delta Time</t>
   </si>
+  <si>
+    <t>Correction</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4217,16 +4234,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>519112</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>185736</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4550,20 +4567,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F225"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B232" sqref="B232:C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4576,8 +4594,14 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1551306971.2</v>
       </c>
@@ -4591,8 +4615,12 @@
       <c r="D2">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>ABS((C2-D2)/2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1551306971.2</v>
       </c>
@@ -4606,8 +4634,12 @@
       <c r="D3">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">ABS((C3-D3)/2)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1551306971.28</v>
       </c>
@@ -4621,8 +4653,16 @@
       <c r="D4">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(E2:E200)</f>
+        <v>5.9824120603015079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1551306971.3800001</v>
       </c>
@@ -4636,12 +4676,16 @@
       <c r="D5">
         <v>32</v>
       </c>
-      <c r="F5">
-        <f>STDEV(C2:C225)</f>
-        <v>11.422524024614226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>STDEV(E2:E200)</f>
+        <v>5.1277559440039617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1551306971.47</v>
       </c>
@@ -4655,8 +4699,12 @@
       <c r="D6">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1551306971.5599999</v>
       </c>
@@ -4670,8 +4718,12 @@
       <c r="D7">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1551306971.6600001</v>
       </c>
@@ -4685,8 +4737,12 @@
       <c r="D8">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1551306971.75</v>
       </c>
@@ -4700,8 +4756,12 @@
       <c r="D9">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1551306971.8399999</v>
       </c>
@@ -4715,8 +4775,12 @@
       <c r="D10">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1551306971.9400001</v>
       </c>
@@ -4730,8 +4794,12 @@
       <c r="D11">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1551306972.03</v>
       </c>
@@ -4745,8 +4813,12 @@
       <c r="D12">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1551306972.1199999</v>
       </c>
@@ -4760,8 +4832,12 @@
       <c r="D13">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1551306972.22</v>
       </c>
@@ -4775,8 +4851,12 @@
       <c r="D14">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1551306972.3099999</v>
       </c>
@@ -4790,8 +4870,12 @@
       <c r="D15">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1551306972.4100001</v>
       </c>
@@ -4805,8 +4889,12 @@
       <c r="D16">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1551306972.51</v>
       </c>
@@ -4820,8 +4908,12 @@
       <c r="D17">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1551306972.5999999</v>
       </c>
@@ -4835,8 +4927,12 @@
       <c r="D18">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1551306972.6900001</v>
       </c>
@@ -4850,8 +4946,12 @@
       <c r="D19">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1551306972.78</v>
       </c>
@@ -4865,8 +4965,12 @@
       <c r="D20">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1551306972.8800001</v>
       </c>
@@ -4880,8 +4984,12 @@
       <c r="D21">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1551306972.97</v>
       </c>
@@ -4895,8 +5003,12 @@
       <c r="D22">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1551306973.0599999</v>
       </c>
@@ -4910,8 +5022,12 @@
       <c r="D23">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1551306973.1600001</v>
       </c>
@@ -4925,8 +5041,12 @@
       <c r="D24">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1551306973.25</v>
       </c>
@@ -4940,8 +5060,12 @@
       <c r="D25">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1551306973.3499999</v>
       </c>
@@ -4955,8 +5079,12 @@
       <c r="D26">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1551306973.4400001</v>
       </c>
@@ -4970,8 +5098,12 @@
       <c r="D27">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1551306973.53</v>
       </c>
@@ -4985,8 +5117,12 @@
       <c r="D28">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1551306973.6300001</v>
       </c>
@@ -5000,8 +5136,12 @@
       <c r="D29">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1551306973.72</v>
       </c>
@@ -5015,8 +5155,12 @@
       <c r="D30">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1551306973.8099999</v>
       </c>
@@ -5030,8 +5174,12 @@
       <c r="D31">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1551306973.9100001</v>
       </c>
@@ -5045,8 +5193,12 @@
       <c r="D32">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1551306974</v>
       </c>
@@ -5060,8 +5212,12 @@
       <c r="D33">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1551306974.0999999</v>
       </c>
@@ -5075,8 +5231,12 @@
       <c r="D34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1551306974.1900001</v>
       </c>
@@ -5090,8 +5250,12 @@
       <c r="D35">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1551306974.28</v>
       </c>
@@ -5105,8 +5269,12 @@
       <c r="D36">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1551306974.3800001</v>
       </c>
@@ -5120,8 +5288,12 @@
       <c r="D37">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1551306974.47</v>
       </c>
@@ -5135,8 +5307,12 @@
       <c r="D38">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1551306974.5599999</v>
       </c>
@@ -5150,8 +5326,12 @@
       <c r="D39">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1551306974.6600001</v>
       </c>
@@ -5165,8 +5345,12 @@
       <c r="D40">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1551306974.75</v>
       </c>
@@ -5180,8 +5364,12 @@
       <c r="D41">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1551306974.8399999</v>
       </c>
@@ -5195,8 +5383,12 @@
       <c r="D42">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1551306974.9400001</v>
       </c>
@@ -5210,8 +5402,12 @@
       <c r="D43">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1551306975.03</v>
       </c>
@@ -5225,8 +5421,12 @@
       <c r="D44">
         <v>32</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1551306975.1300001</v>
       </c>
@@ -5240,8 +5440,12 @@
       <c r="D45">
         <v>33</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1551306975.22</v>
       </c>
@@ -5255,8 +5459,12 @@
       <c r="D46">
         <v>36</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1551306975.3099999</v>
       </c>
@@ -5270,8 +5478,12 @@
       <c r="D47">
         <v>38</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1551306975.4100001</v>
       </c>
@@ -5285,8 +5497,12 @@
       <c r="D48">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1551306975.5</v>
       </c>
@@ -5300,8 +5516,12 @@
       <c r="D49">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1551306975.5899999</v>
       </c>
@@ -5315,8 +5535,12 @@
       <c r="D50">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1551306975.6900001</v>
       </c>
@@ -5330,8 +5554,12 @@
       <c r="D51">
         <v>43</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1551306975.78</v>
       </c>
@@ -5345,8 +5573,12 @@
       <c r="D52">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1551306975.8800001</v>
       </c>
@@ -5360,8 +5592,12 @@
       <c r="D53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1551306975.97</v>
       </c>
@@ -5375,8 +5611,12 @@
       <c r="D54">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1551306976.0599999</v>
       </c>
@@ -5390,8 +5630,12 @@
       <c r="D55">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1551306976.1600001</v>
       </c>
@@ -5405,8 +5649,12 @@
       <c r="D56">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1551306976.25</v>
       </c>
@@ -5420,8 +5668,12 @@
       <c r="D57">
         <v>51</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1551306976.3399999</v>
       </c>
@@ -5435,8 +5687,12 @@
       <c r="D58">
         <v>52</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1551306976.4400001</v>
       </c>
@@ -5450,8 +5706,12 @@
       <c r="D59">
         <v>53</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1551306976.53</v>
       </c>
@@ -5465,8 +5725,12 @@
       <c r="D60">
         <v>52</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1551306976.6199999</v>
       </c>
@@ -5480,8 +5744,12 @@
       <c r="D61">
         <v>47</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1551306976.72</v>
       </c>
@@ -5495,8 +5763,12 @@
       <c r="D62">
         <v>44</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1551306976.8099999</v>
       </c>
@@ -5510,8 +5782,12 @@
       <c r="D63">
         <v>42</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1551306976.9100001</v>
       </c>
@@ -5525,8 +5801,12 @@
       <c r="D64">
         <v>41</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1551306977</v>
       </c>
@@ -5540,8 +5820,12 @@
       <c r="D65">
         <v>40</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1551306977.0899999</v>
       </c>
@@ -5555,13 +5839,17 @@
       <c r="D66">
         <v>40</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1551306977.1900001</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B130" si="1">A67-1551306971.2</f>
+        <f t="shared" ref="B67:B130" si="2">A67-1551306971.2</f>
         <v>5.9900000095367432</v>
       </c>
       <c r="C67">
@@ -5570,13 +5858,17 @@
       <c r="D67">
         <v>39</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="3">ABS((C67-D67)/2)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1551306977.28</v>
       </c>
       <c r="B68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0799999237060547</v>
       </c>
       <c r="C68">
@@ -5585,13 +5877,17 @@
       <c r="D68">
         <v>39</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1551306977.3800001</v>
       </c>
       <c r="B69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1800000667572021</v>
       </c>
       <c r="C69">
@@ -5600,13 +5896,17 @@
       <c r="D69">
         <v>38</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1551306977.54</v>
       </c>
       <c r="B70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3399999141693115</v>
       </c>
       <c r="C70">
@@ -5615,13 +5915,17 @@
       <c r="D70">
         <v>38</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1551306977.6300001</v>
       </c>
       <c r="B71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4300000667572021</v>
       </c>
       <c r="C71">
@@ -5630,13 +5934,17 @@
       <c r="D71">
         <v>36</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1551306977.72</v>
       </c>
       <c r="B72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5199999809265137</v>
       </c>
       <c r="C72">
@@ -5645,13 +5953,17 @@
       <c r="D72">
         <v>35</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1551306977.8099999</v>
       </c>
       <c r="B73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6099998950958252</v>
       </c>
       <c r="C73">
@@ -5660,13 +5972,17 @@
       <c r="D73">
         <v>35</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1551306977.9100001</v>
       </c>
       <c r="B74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7100000381469727</v>
       </c>
       <c r="C74">
@@ -5675,13 +5991,17 @@
       <c r="D74">
         <v>34</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1551306978</v>
       </c>
       <c r="B75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7999999523162842</v>
       </c>
       <c r="C75">
@@ -5690,13 +6010,17 @@
       <c r="D75">
         <v>34</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1551306978.0899999</v>
       </c>
       <c r="B76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8899998664855957</v>
       </c>
       <c r="C76">
@@ -5705,13 +6029,17 @@
       <c r="D76">
         <v>33</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1551306978.1900001</v>
       </c>
       <c r="B77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9900000095367432</v>
       </c>
       <c r="C77">
@@ -5720,13 +6048,17 @@
       <c r="D77">
         <v>33</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1551306978.28</v>
       </c>
       <c r="B78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0799999237060547</v>
       </c>
       <c r="C78">
@@ -5735,13 +6067,17 @@
       <c r="D78">
         <v>33</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1551306978.3699999</v>
       </c>
       <c r="B79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1699998378753662</v>
       </c>
       <c r="C79">
@@ -5750,13 +6086,17 @@
       <c r="D79">
         <v>32</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1551306978.52</v>
       </c>
       <c r="B80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3199999332427979</v>
       </c>
       <c r="C80">
@@ -5765,13 +6105,17 @@
       <c r="D80">
         <v>32</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1551306978.5599999</v>
       </c>
       <c r="B81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3599998950958252</v>
       </c>
       <c r="C81">
@@ -5780,13 +6124,17 @@
       <c r="D81">
         <v>32</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1551306978.5899999</v>
       </c>
       <c r="B82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3899998664855957</v>
       </c>
       <c r="C82">
@@ -5795,13 +6143,17 @@
       <c r="D82">
         <v>32</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1551306978.6900001</v>
       </c>
       <c r="B83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4900000095367432</v>
       </c>
       <c r="C83">
@@ -5810,13 +6162,17 @@
       <c r="D83">
         <v>32</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1551306978.78</v>
       </c>
       <c r="B84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5799999237060547</v>
       </c>
       <c r="C84">
@@ -5825,13 +6181,17 @@
       <c r="D84">
         <v>32</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1551306978.8699999</v>
       </c>
       <c r="B85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6699998378753662</v>
       </c>
       <c r="C85">
@@ -5840,13 +6200,17 @@
       <c r="D85">
         <v>32</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1551306978.97</v>
       </c>
       <c r="B86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.7699999809265137</v>
       </c>
       <c r="C86">
@@ -5855,13 +6219,17 @@
       <c r="D86">
         <v>32</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1551306979.0599999</v>
       </c>
       <c r="B87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.8599998950958252</v>
       </c>
       <c r="C87">
@@ -5870,13 +6238,17 @@
       <c r="D87">
         <v>32</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1551306979.1600001</v>
       </c>
       <c r="B88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.9600000381469727</v>
       </c>
       <c r="C88">
@@ -5885,13 +6257,17 @@
       <c r="D88">
         <v>32</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1551306979.25</v>
       </c>
       <c r="B89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0499999523162842</v>
       </c>
       <c r="C89">
@@ -5900,13 +6276,17 @@
       <c r="D89">
         <v>32</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1551306979.3399999</v>
       </c>
       <c r="B90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1399998664855957</v>
       </c>
       <c r="C90">
@@ -5915,13 +6295,17 @@
       <c r="D90">
         <v>32</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1551306979.4400001</v>
       </c>
       <c r="B91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2400000095367432</v>
       </c>
       <c r="C91">
@@ -5930,13 +6314,17 @@
       <c r="D91">
         <v>32</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1551306979.51</v>
       </c>
       <c r="B92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.309999942779541</v>
       </c>
       <c r="C92">
@@ -5945,13 +6333,20 @@
       <c r="D92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1551306981.03</v>
       </c>
       <c r="B93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8299999237060547</v>
       </c>
       <c r="C93">
@@ -5960,13 +6355,20 @@
       <c r="D93">
         <v>31</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1551306981.1199999</v>
       </c>
       <c r="B94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9199998378753662</v>
       </c>
       <c r="C94">
@@ -5975,13 +6377,20 @@
       <c r="D94">
         <v>47</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1551306981.22</v>
       </c>
       <c r="B95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.019999980926514</v>
       </c>
       <c r="C95">
@@ -5990,13 +6399,20 @@
       <c r="D95">
         <v>45</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1551306981.3099999</v>
       </c>
       <c r="B96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.109999895095825</v>
       </c>
       <c r="C96">
@@ -6005,13 +6421,20 @@
       <c r="D96">
         <v>44</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <f t="shared" si="3"/>
+        <v>11.5</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1551306981.4100001</v>
       </c>
       <c r="B97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.210000038146973</v>
       </c>
       <c r="C97">
@@ -6020,13 +6443,17 @@
       <c r="D97">
         <v>42</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1551306981.5599999</v>
       </c>
       <c r="B98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.359999895095825</v>
       </c>
       <c r="C98">
@@ -6035,13 +6462,17 @@
       <c r="D98">
         <v>40</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1551306981.6500001</v>
       </c>
       <c r="B99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.450000047683716</v>
       </c>
       <c r="C99">
@@ -6050,13 +6481,17 @@
       <c r="D99">
         <v>38</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1551306981.6800001</v>
       </c>
       <c r="B100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.480000019073486</v>
       </c>
       <c r="C100">
@@ -6065,13 +6500,17 @@
       <c r="D100">
         <v>38</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1551306981.72</v>
       </c>
       <c r="B101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.519999980926514</v>
       </c>
       <c r="C101">
@@ -6080,13 +6519,17 @@
       <c r="D101">
         <v>38</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1551306981.8099999</v>
       </c>
       <c r="B102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.609999895095825</v>
       </c>
       <c r="C102">
@@ -6095,13 +6538,17 @@
       <c r="D102">
         <v>37</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1551306981.9100001</v>
       </c>
       <c r="B103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.710000038146973</v>
       </c>
       <c r="C103">
@@ -6110,13 +6557,17 @@
       <c r="D103">
         <v>38</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1551306982</v>
       </c>
       <c r="B104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.799999952316284</v>
       </c>
       <c r="C104">
@@ -6125,13 +6576,17 @@
       <c r="D104">
         <v>39</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1551306982.0899999</v>
       </c>
       <c r="B105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.889999866485596</v>
       </c>
       <c r="C105">
@@ -6140,13 +6595,17 @@
       <c r="D105">
         <v>42</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1551306982.1900001</v>
       </c>
       <c r="B106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.990000009536743</v>
       </c>
       <c r="C106">
@@ -6155,13 +6614,17 @@
       <c r="D106">
         <v>44</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <f t="shared" si="3"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1551306982.28</v>
       </c>
       <c r="B107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.079999923706055</v>
       </c>
       <c r="C107">
@@ -6170,13 +6633,17 @@
       <c r="D107">
         <v>46</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1551306982.3800001</v>
       </c>
       <c r="B108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.180000066757202</v>
       </c>
       <c r="C108">
@@ -6185,13 +6652,17 @@
       <c r="D108">
         <v>45</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1551306982.47</v>
       </c>
       <c r="B109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.269999980926514</v>
       </c>
       <c r="C109">
@@ -6200,13 +6671,17 @@
       <c r="D109">
         <v>44</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1551306982.5599999</v>
       </c>
       <c r="B110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.359999895095825</v>
       </c>
       <c r="C110">
@@ -6215,13 +6690,17 @@
       <c r="D110">
         <v>42</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1551306982.6600001</v>
       </c>
       <c r="B111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.460000038146973</v>
       </c>
       <c r="C111">
@@ -6230,13 +6709,17 @@
       <c r="D111">
         <v>41</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1551306982.75</v>
       </c>
       <c r="B112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.549999952316284</v>
       </c>
       <c r="C112">
@@ -6245,13 +6728,17 @@
       <c r="D112">
         <v>42</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1551306982.8399999</v>
       </c>
       <c r="B113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.639999866485596</v>
       </c>
       <c r="C113">
@@ -6260,13 +6747,17 @@
       <c r="D113">
         <v>43</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1551306982.9400001</v>
       </c>
       <c r="B114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.740000009536743</v>
       </c>
       <c r="C114">
@@ -6275,13 +6766,17 @@
       <c r="D114">
         <v>42</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <f t="shared" si="3"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1551306983.03</v>
       </c>
       <c r="B115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.829999923706055</v>
       </c>
       <c r="C115">
@@ -6290,13 +6785,17 @@
       <c r="D115">
         <v>46</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1551306983.1300001</v>
       </c>
       <c r="B116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.930000066757202</v>
       </c>
       <c r="C116">
@@ -6305,13 +6804,17 @@
       <c r="D116">
         <v>52</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1551306983.22</v>
       </c>
       <c r="B117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.019999980926514</v>
       </c>
       <c r="C117">
@@ -6320,13 +6823,17 @@
       <c r="D117">
         <v>51</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <f t="shared" si="3"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1551306983.3099999</v>
       </c>
       <c r="B118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.109999895095825</v>
       </c>
       <c r="C118">
@@ -6335,13 +6842,17 @@
       <c r="D118">
         <v>46</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1551306983.4100001</v>
       </c>
       <c r="B119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.210000038146973</v>
       </c>
       <c r="C119">
@@ -6350,13 +6861,17 @@
       <c r="D119">
         <v>42</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1551306983.5</v>
       </c>
       <c r="B120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.299999952316284</v>
       </c>
       <c r="C120">
@@ -6365,13 +6880,17 @@
       <c r="D120">
         <v>39</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1551306983.5899999</v>
       </c>
       <c r="B121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.389999866485596</v>
       </c>
       <c r="C121">
@@ -6380,13 +6899,17 @@
       <c r="D121">
         <v>39</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1551306983.6900001</v>
       </c>
       <c r="B122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.490000009536743</v>
       </c>
       <c r="C122">
@@ -6395,13 +6918,17 @@
       <c r="D122">
         <v>39</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1551306983.78</v>
       </c>
       <c r="B123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.579999923706055</v>
       </c>
       <c r="C123">
@@ -6410,13 +6937,17 @@
       <c r="D123">
         <v>39</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1551306983.8800001</v>
       </c>
       <c r="B124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.680000066757202</v>
       </c>
       <c r="C124">
@@ -6425,13 +6956,17 @@
       <c r="D124">
         <v>38</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1551306983.97</v>
       </c>
       <c r="B125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.769999980926514</v>
       </c>
       <c r="C125">
@@ -6440,13 +6975,17 @@
       <c r="D125">
         <v>38</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1551306984.0599999</v>
       </c>
       <c r="B126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.859999895095825</v>
       </c>
       <c r="C126">
@@ -6455,13 +6994,17 @@
       <c r="D126">
         <v>38</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1551306984.1600001</v>
       </c>
       <c r="B127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.960000038146973</v>
       </c>
       <c r="C127">
@@ -6470,13 +7013,17 @@
       <c r="D127">
         <v>37</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1551306984.25</v>
       </c>
       <c r="B128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.049999952316284</v>
       </c>
       <c r="C128">
@@ -6485,13 +7032,17 @@
       <c r="D128">
         <v>36</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1551306984.3399999</v>
       </c>
       <c r="B129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.139999866485596</v>
       </c>
       <c r="C129">
@@ -6500,13 +7051,17 @@
       <c r="D129">
         <v>38</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1551306984.4400001</v>
       </c>
       <c r="B130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.240000009536743</v>
       </c>
       <c r="C130">
@@ -6515,13 +7070,17 @@
       <c r="D130">
         <v>38</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1551306984.53</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131:B194" si="2">A131-1551306971.2</f>
+        <f t="shared" ref="B131:B194" si="4">A131-1551306971.2</f>
         <v>13.329999923706055</v>
       </c>
       <c r="C131">
@@ -6530,13 +7089,17 @@
       <c r="D131">
         <v>42</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <f t="shared" ref="E131:E194" si="5">ABS((C131-D131)/2)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1551306984.6199999</v>
       </c>
       <c r="B132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.419999837875366</v>
       </c>
       <c r="C132">
@@ -6545,13 +7108,17 @@
       <c r="D132">
         <v>43</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <f t="shared" si="5"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1551306984.72</v>
       </c>
       <c r="B133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.519999980926514</v>
       </c>
       <c r="C133">
@@ -6560,13 +7127,17 @@
       <c r="D133">
         <v>43</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1551306984.8099999</v>
       </c>
       <c r="B134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.609999895095825</v>
       </c>
       <c r="C134">
@@ -6575,13 +7146,17 @@
       <c r="D134">
         <v>42</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1551306984.9100001</v>
       </c>
       <c r="B135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.710000038146973</v>
       </c>
       <c r="C135">
@@ -6590,13 +7165,17 @@
       <c r="D135">
         <v>40</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1551306985</v>
       </c>
       <c r="B136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.799999952316284</v>
       </c>
       <c r="C136">
@@ -6605,13 +7184,17 @@
       <c r="D136">
         <v>40</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1551306985.0899999</v>
       </c>
       <c r="B137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.889999866485596</v>
       </c>
       <c r="C137">
@@ -6620,13 +7203,17 @@
       <c r="D137">
         <v>39</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <f t="shared" si="5"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1551306985.1900001</v>
       </c>
       <c r="B138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.990000009536743</v>
       </c>
       <c r="C138">
@@ -6635,13 +7222,17 @@
       <c r="D138">
         <v>39</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1551306985.28</v>
       </c>
       <c r="B139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.079999923706055</v>
       </c>
       <c r="C139">
@@ -6650,13 +7241,17 @@
       <c r="D139">
         <v>41</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1551306985.3699999</v>
       </c>
       <c r="B140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.169999837875366</v>
       </c>
       <c r="C140">
@@ -6665,13 +7260,17 @@
       <c r="D140">
         <v>42</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1551306985.47</v>
       </c>
       <c r="B141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.269999980926514</v>
       </c>
       <c r="C141">
@@ -6680,13 +7279,17 @@
       <c r="D141">
         <v>42</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <f t="shared" si="5"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1551306985.5599999</v>
       </c>
       <c r="B142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.359999895095825</v>
       </c>
       <c r="C142">
@@ -6695,13 +7298,17 @@
       <c r="D142">
         <v>47</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1551306985.6500001</v>
       </c>
       <c r="B143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.450000047683716</v>
       </c>
       <c r="C143">
@@ -6710,13 +7317,17 @@
       <c r="D143">
         <v>47</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1551306985.79</v>
       </c>
       <c r="B144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.589999914169312</v>
       </c>
       <c r="C144">
@@ -6725,13 +7336,17 @@
       <c r="D144">
         <v>47</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <f t="shared" si="5"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1551306985.8800001</v>
       </c>
       <c r="B145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.680000066757202</v>
       </c>
       <c r="C145">
@@ -6740,13 +7355,17 @@
       <c r="D145">
         <v>44</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <f t="shared" si="5"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1551306985.97</v>
       </c>
       <c r="B146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.769999980926514</v>
       </c>
       <c r="C146">
@@ -6755,13 +7374,17 @@
       <c r="D146">
         <v>42</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1551306986.0599999</v>
       </c>
       <c r="B147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.859999895095825</v>
       </c>
       <c r="C147">
@@ -6770,13 +7393,17 @@
       <c r="D147">
         <v>40</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1551306986.1600001</v>
       </c>
       <c r="B148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.960000038146973</v>
       </c>
       <c r="C148">
@@ -6785,13 +7412,17 @@
       <c r="D148">
         <v>40</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1551306986.25</v>
       </c>
       <c r="B149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.049999952316284</v>
       </c>
       <c r="C149">
@@ -6800,13 +7431,17 @@
       <c r="D149">
         <v>39</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1551306986.3399999</v>
       </c>
       <c r="B150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.139999866485596</v>
       </c>
       <c r="C150">
@@ -6815,13 +7450,17 @@
       <c r="D150">
         <v>39</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1551306986.4400001</v>
       </c>
       <c r="B151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.240000009536743</v>
       </c>
       <c r="C151">
@@ -6830,13 +7469,17 @@
       <c r="D151">
         <v>41</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <f t="shared" si="5"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1551306986.53</v>
       </c>
       <c r="B152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.329999923706055</v>
       </c>
       <c r="C152">
@@ -6845,13 +7488,17 @@
       <c r="D152">
         <v>40</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1551306986.6199999</v>
       </c>
       <c r="B153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.419999837875366</v>
       </c>
       <c r="C153">
@@ -6860,13 +7507,17 @@
       <c r="D153">
         <v>41</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1551306986.72</v>
       </c>
       <c r="B154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.519999980926514</v>
       </c>
       <c r="C154">
@@ -6875,13 +7526,17 @@
       <c r="D154">
         <v>42</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1551306986.8099999</v>
       </c>
       <c r="B155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.609999895095825</v>
       </c>
       <c r="C155">
@@ -6890,13 +7545,17 @@
       <c r="D155">
         <v>42</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1551306986.9100001</v>
       </c>
       <c r="B156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.710000038146973</v>
       </c>
       <c r="C156">
@@ -6905,13 +7564,17 @@
       <c r="D156">
         <v>42</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1551306987</v>
       </c>
       <c r="B157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.799999952316284</v>
       </c>
       <c r="C157">
@@ -6920,13 +7583,17 @@
       <c r="D157">
         <v>40</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1551306987.0899999</v>
       </c>
       <c r="B158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.889999866485596</v>
       </c>
       <c r="C158">
@@ -6935,13 +7602,17 @@
       <c r="D158">
         <v>40</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1551306987.1900001</v>
       </c>
       <c r="B159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.990000009536743</v>
       </c>
       <c r="C159">
@@ -6950,13 +7621,17 @@
       <c r="D159">
         <v>38</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1551306987.28</v>
       </c>
       <c r="B160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.079999923706055</v>
       </c>
       <c r="C160">
@@ -6965,13 +7640,17 @@
       <c r="D160">
         <v>38</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1551306987.3699999</v>
       </c>
       <c r="B161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.169999837875366</v>
       </c>
       <c r="C161">
@@ -6980,13 +7659,17 @@
       <c r="D161">
         <v>36</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1551306987.48</v>
       </c>
       <c r="B162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.279999971389771</v>
       </c>
       <c r="C162">
@@ -6995,13 +7678,17 @@
       <c r="D162">
         <v>35</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1551306987.5699999</v>
       </c>
       <c r="B163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.369999885559082</v>
       </c>
       <c r="C163">
@@ -7010,13 +7697,17 @@
       <c r="D163">
         <v>35</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1551306987.6600001</v>
       </c>
       <c r="B164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.460000038146973</v>
       </c>
       <c r="C164">
@@ -7025,13 +7716,17 @@
       <c r="D164">
         <v>34</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1551306987.75</v>
       </c>
       <c r="B165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.549999952316284</v>
       </c>
       <c r="C165">
@@ -7040,13 +7735,17 @@
       <c r="D165">
         <v>34</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1551306987.8900001</v>
       </c>
       <c r="B166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.690000057220459</v>
       </c>
       <c r="C166">
@@ -7055,13 +7754,17 @@
       <c r="D166">
         <v>32</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1551306987.98</v>
       </c>
       <c r="B167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.779999971389771</v>
       </c>
       <c r="C167">
@@ -7070,13 +7773,17 @@
       <c r="D167">
         <v>29</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1551306988.0699999</v>
       </c>
       <c r="B168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.869999885559082</v>
       </c>
       <c r="C168">
@@ -7085,13 +7792,17 @@
       <c r="D168">
         <v>27</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1551306988.1600001</v>
       </c>
       <c r="B169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.960000038146973</v>
       </c>
       <c r="C169">
@@ -7100,13 +7811,17 @@
       <c r="D169">
         <v>24</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169">
+        <f t="shared" si="5"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1551306988.25</v>
       </c>
       <c r="B170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.049999952316284</v>
       </c>
       <c r="C170">
@@ -7115,13 +7830,17 @@
       <c r="D170">
         <v>23</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170">
+        <f t="shared" si="5"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1551306988.3399999</v>
       </c>
       <c r="B171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.139999866485596</v>
       </c>
       <c r="C171">
@@ -7130,13 +7849,17 @@
       <c r="D171">
         <v>22</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1551306988.4400001</v>
       </c>
       <c r="B172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.240000009536743</v>
       </c>
       <c r="C172">
@@ -7145,13 +7868,17 @@
       <c r="D172">
         <v>21</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1551306988.53</v>
       </c>
       <c r="B173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.329999923706055</v>
       </c>
       <c r="C173">
@@ -7160,13 +7887,17 @@
       <c r="D173">
         <v>22</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1551306988.6199999</v>
       </c>
       <c r="B174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.419999837875366</v>
       </c>
       <c r="C174">
@@ -7175,13 +7906,17 @@
       <c r="D174">
         <v>22</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1551306988.72</v>
       </c>
       <c r="B175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.519999980926514</v>
       </c>
       <c r="C175">
@@ -7190,13 +7925,17 @@
       <c r="D175">
         <v>21</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175">
+        <f t="shared" si="5"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1551306988.8099999</v>
       </c>
       <c r="B176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.609999895095825</v>
       </c>
       <c r="C176">
@@ -7205,13 +7944,17 @@
       <c r="D176">
         <v>21</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <f t="shared" si="5"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1551306988.9100001</v>
       </c>
       <c r="B177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.710000038146973</v>
       </c>
       <c r="C177">
@@ -7220,13 +7963,17 @@
       <c r="D177">
         <v>22</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1551306989</v>
       </c>
       <c r="B178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.799999952316284</v>
       </c>
       <c r="C178">
@@ -7235,13 +7982,17 @@
       <c r="D178">
         <v>23</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1551306989.0899999</v>
       </c>
       <c r="B179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.889999866485596</v>
       </c>
       <c r="C179">
@@ -7250,13 +8001,17 @@
       <c r="D179">
         <v>21</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1551306989.1900001</v>
       </c>
       <c r="B180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.990000009536743</v>
       </c>
       <c r="C180">
@@ -7265,13 +8020,17 @@
       <c r="D180">
         <v>20</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1551306989.28</v>
       </c>
       <c r="B181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.079999923706055</v>
       </c>
       <c r="C181">
@@ -7280,13 +8039,17 @@
       <c r="D181">
         <v>20</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1551306989.3699999</v>
       </c>
       <c r="B182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.169999837875366</v>
       </c>
       <c r="C182">
@@ -7295,13 +8058,17 @@
       <c r="D182">
         <v>20</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182">
+        <f t="shared" si="5"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1551306989.47</v>
       </c>
       <c r="B183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.269999980926514</v>
       </c>
       <c r="C183">
@@ -7310,13 +8077,17 @@
       <c r="D183">
         <v>21</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <f t="shared" si="5"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1551306989.5599999</v>
       </c>
       <c r="B184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.359999895095825</v>
       </c>
       <c r="C184">
@@ -7325,13 +8096,17 @@
       <c r="D184">
         <v>22</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <f t="shared" si="5"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1551306989.6600001</v>
       </c>
       <c r="B185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.460000038146973</v>
       </c>
       <c r="C185">
@@ -7340,13 +8115,17 @@
       <c r="D185">
         <v>23</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1551306989.75</v>
       </c>
       <c r="B186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.549999952316284</v>
       </c>
       <c r="C186">
@@ -7355,13 +8134,17 @@
       <c r="D186">
         <v>23</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <f t="shared" si="5"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1551306989.8399999</v>
       </c>
       <c r="B187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.639999866485596</v>
       </c>
       <c r="C187">
@@ -7370,13 +8153,17 @@
       <c r="D187">
         <v>24</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <f t="shared" si="5"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1551306989.9400001</v>
       </c>
       <c r="B188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.740000009536743</v>
       </c>
       <c r="C188">
@@ -7385,13 +8172,17 @@
       <c r="D188">
         <v>24</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <f t="shared" si="5"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1551306990.03</v>
       </c>
       <c r="B189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.829999923706055</v>
       </c>
       <c r="C189">
@@ -7400,13 +8191,17 @@
       <c r="D189">
         <v>25</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1551306990.1199999</v>
       </c>
       <c r="B190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.919999837875366</v>
       </c>
       <c r="C190">
@@ -7415,13 +8210,17 @@
       <c r="D190">
         <v>27</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1551306990.22</v>
       </c>
       <c r="B191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.019999980926514</v>
       </c>
       <c r="C191">
@@ -7430,13 +8229,17 @@
       <c r="D191">
         <v>30</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1551306990.3099999</v>
       </c>
       <c r="B192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.109999895095825</v>
       </c>
       <c r="C192">
@@ -7445,13 +8248,17 @@
       <c r="D192">
         <v>31</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1551306990.4100001</v>
       </c>
       <c r="B193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.210000038146973</v>
       </c>
       <c r="C193">
@@ -7460,13 +8267,17 @@
       <c r="D193">
         <v>32</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1551306990.5</v>
       </c>
       <c r="B194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.299999952316284</v>
       </c>
       <c r="C194">
@@ -7475,13 +8286,17 @@
       <c r="D194">
         <v>34</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1551306990.5899999</v>
       </c>
       <c r="B195">
-        <f t="shared" ref="B195:B225" si="3">A195-1551306971.2</f>
+        <f t="shared" ref="B195:B225" si="6">A195-1551306971.2</f>
         <v>19.389999866485596</v>
       </c>
       <c r="C195">
@@ -7490,13 +8305,17 @@
       <c r="D195">
         <v>35</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <f t="shared" ref="E195:E258" si="7">ABS((C195-D195)/2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1551306990.6900001</v>
       </c>
       <c r="B196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>19.490000009536743</v>
       </c>
       <c r="C196">
@@ -7505,13 +8324,17 @@
       <c r="D196">
         <v>35</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1551306990.78</v>
       </c>
       <c r="B197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>19.579999923706055</v>
       </c>
       <c r="C197">
@@ -7520,13 +8343,17 @@
       <c r="D197">
         <v>36</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1551306990.8699999</v>
       </c>
       <c r="B198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>19.669999837875366</v>
       </c>
       <c r="C198">
@@ -7535,13 +8362,17 @@
       <c r="D198">
         <v>36</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1551306990.97</v>
       </c>
       <c r="B199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>19.769999980926514</v>
       </c>
       <c r="C199">
@@ -7550,13 +8381,17 @@
       <c r="D199">
         <v>36</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1551306991.04</v>
       </c>
       <c r="B200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>19.839999914169312</v>
       </c>
       <c r="C200">
@@ -7565,13 +8400,20 @@
       <c r="D200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1551306992.5699999</v>
       </c>
       <c r="B201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>21.369999885559082</v>
       </c>
       <c r="C201">
@@ -7580,13 +8422,20 @@
       <c r="D201">
         <v>36</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1551306992.6500001</v>
       </c>
       <c r="B202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>21.450000047683716</v>
       </c>
       <c r="C202">
@@ -7595,13 +8444,20 @@
       <c r="D202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1551306992.75</v>
       </c>
       <c r="B203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>21.549999952316284</v>
       </c>
       <c r="C203">
@@ -7610,13 +8466,20 @@
       <c r="D203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1551306992.8399999</v>
       </c>
       <c r="B204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>21.639999866485596</v>
       </c>
       <c r="C204">
@@ -7625,13 +8488,20 @@
       <c r="D204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1551306992.9400001</v>
       </c>
       <c r="B205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>21.740000009536743</v>
       </c>
       <c r="C205">
@@ -7640,13 +8510,20 @@
       <c r="D205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1551306993.03</v>
       </c>
       <c r="B206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>21.829999923706055</v>
       </c>
       <c r="C206">
@@ -7655,13 +8532,20 @@
       <c r="D206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1551306993.1199999</v>
       </c>
       <c r="B207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>21.919999837875366</v>
       </c>
       <c r="C207">
@@ -7670,13 +8554,20 @@
       <c r="D207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1551306993.22</v>
       </c>
       <c r="B208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22.019999980926514</v>
       </c>
       <c r="C208">
@@ -7685,13 +8576,20 @@
       <c r="D208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1551306993.3099999</v>
       </c>
       <c r="B209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22.109999895095825</v>
       </c>
       <c r="C209">
@@ -7700,13 +8598,20 @@
       <c r="D209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1551306993.4000001</v>
       </c>
       <c r="B210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22.200000047683716</v>
       </c>
       <c r="C210">
@@ -7715,13 +8620,20 @@
       <c r="D210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1551306993.5</v>
       </c>
       <c r="B211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22.299999952316284</v>
       </c>
       <c r="C211">
@@ -7730,13 +8642,20 @@
       <c r="D211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1551306993.5899999</v>
       </c>
       <c r="B212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22.389999866485596</v>
       </c>
       <c r="C212">
@@ -7745,13 +8664,20 @@
       <c r="D212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1551306993.6900001</v>
       </c>
       <c r="B213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22.490000009536743</v>
       </c>
       <c r="C213">
@@ -7760,13 +8686,20 @@
       <c r="D213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1551306993.78</v>
       </c>
       <c r="B214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22.579999923706055</v>
       </c>
       <c r="C214">
@@ -7775,13 +8708,20 @@
       <c r="D214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1551306993.8699999</v>
       </c>
       <c r="B215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22.669999837875366</v>
       </c>
       <c r="C215">
@@ -7790,13 +8730,20 @@
       <c r="D215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1551306993.97</v>
       </c>
       <c r="B216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22.769999980926514</v>
       </c>
       <c r="C216">
@@ -7805,13 +8752,20 @@
       <c r="D216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1551306994.0599999</v>
       </c>
       <c r="B217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22.859999895095825</v>
       </c>
       <c r="C217">
@@ -7820,13 +8774,20 @@
       <c r="D217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1551306994.1500001</v>
       </c>
       <c r="B218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22.950000047683716</v>
       </c>
       <c r="C218">
@@ -7835,13 +8796,20 @@
       <c r="D218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1551306994.25</v>
       </c>
       <c r="B219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.049999952316284</v>
       </c>
       <c r="C219">
@@ -7850,13 +8818,20 @@
       <c r="D219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1551306994.3399999</v>
       </c>
       <c r="B220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.139999866485596</v>
       </c>
       <c r="C220">
@@ -7865,13 +8840,20 @@
       <c r="D220">
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1551306994.4400001</v>
       </c>
       <c r="B221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.240000009536743</v>
       </c>
       <c r="C221">
@@ -7880,13 +8862,20 @@
       <c r="D221">
         <v>16</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1551306994.53</v>
       </c>
       <c r="B222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.329999923706055</v>
       </c>
       <c r="C222">
@@ -7895,13 +8884,20 @@
       <c r="D222">
         <v>19</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <f t="shared" si="7"/>
+        <v>13.5</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1551306994.6199999</v>
       </c>
       <c r="B223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.419999837875366</v>
       </c>
       <c r="C223">
@@ -7910,13 +8906,17 @@
       <c r="D223">
         <v>23</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1551306994.72</v>
       </c>
       <c r="B224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.519999980926514</v>
       </c>
       <c r="C224">
@@ -7925,13 +8925,17 @@
       <c r="D224">
         <v>27</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1551306994.8099999</v>
       </c>
       <c r="B225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.609999895095825</v>
       </c>
       <c r="C225">
@@ -7940,8 +8944,201 @@
       <c r="D225">
         <v>42</v>
       </c>
+      <c r="E225">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1551306981.03</v>
+      </c>
+      <c r="B232">
+        <v>9.8299999237060547</v>
+      </c>
+      <c r="C232">
+        <v>34</v>
+      </c>
+      <c r="D232">
+        <v>31</v>
+      </c>
+      <c r="E232">
+        <v>1.5</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1551306981.1199999</v>
+      </c>
+      <c r="B233">
+        <v>9.9199998378753662</v>
+      </c>
+      <c r="C233">
+        <v>19</v>
+      </c>
+      <c r="D233">
+        <v>47</v>
+      </c>
+      <c r="E233">
+        <v>14</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <f>AVERAGE(E232:E240)</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1551306981.22</v>
+      </c>
+      <c r="B234">
+        <v>10.019999980926514</v>
+      </c>
+      <c r="C234">
+        <v>21</v>
+      </c>
+      <c r="D234">
+        <v>45</v>
+      </c>
+      <c r="E234">
+        <v>12</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <f>STDEV(E232:E240)</f>
+        <v>9.5229984773704555</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1551306981.3099999</v>
+      </c>
+      <c r="B235">
+        <v>10.109999895095825</v>
+      </c>
+      <c r="C235">
+        <v>21</v>
+      </c>
+      <c r="D235">
+        <v>44</v>
+      </c>
+      <c r="E235">
+        <v>11.5</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1551306992.5699999</v>
+      </c>
+      <c r="B236">
+        <v>21.369999885559082</v>
+      </c>
+      <c r="C236">
+        <v>30</v>
+      </c>
+      <c r="D236">
+        <v>36</v>
+      </c>
+      <c r="E236">
+        <v>3</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1551306994.25</v>
+      </c>
+      <c r="B237">
+        <v>23.049999952316284</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1551306994.3399999</v>
+      </c>
+      <c r="B238">
+        <v>23.139999866485596</v>
+      </c>
+      <c r="C238">
+        <v>64</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
+      </c>
+      <c r="E238">
+        <v>31</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1551306994.4400001</v>
+      </c>
+      <c r="B239">
+        <v>23.240000009536743</v>
+      </c>
+      <c r="C239">
+        <v>50</v>
+      </c>
+      <c r="D239">
+        <v>16</v>
+      </c>
+      <c r="E239">
+        <v>17</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1551306994.53</v>
+      </c>
+      <c r="B240">
+        <v>23.329999923706055</v>
+      </c>
+      <c r="C240">
+        <v>46</v>
+      </c>
+      <c r="D240">
+        <v>19</v>
+      </c>
+      <c r="E240">
+        <v>13.5</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G225" xr:uid="{51FEF7C1-ED20-4946-95A4-C9D24A71CDE1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
